--- a/Project Computer Vision/Perhitungan Manual.xlsx
+++ b/Project Computer Vision/Perhitungan Manual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilham\Documents\Project Computer Vision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B45C5D3E-8655-4A94-85CE-1E7455645A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E65BAD0-0599-4E58-9B1B-87C364338572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C826C41-09EE-445C-8B0E-57ED9189B121}"/>
   </bookViews>
@@ -212,62 +212,62 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -586,69 +586,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FD423E-E46F-429A-835A-CE1449A2110B}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="6"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="11"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="13" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="15"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="20"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H5" s="1">
@@ -811,186 +811,186 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="G10" s="16" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="Q10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f>(H5+M5+R5)/3</f>
+        <f t="shared" ref="A11:D14" si="0">(H5+M5+R5)/3</f>
         <v>224</v>
       </c>
       <c r="B11" s="1">
-        <f>(I5+N5+S5)/3</f>
+        <f t="shared" si="0"/>
         <v>223.66666666666666</v>
       </c>
       <c r="C11" s="1">
-        <f>(J5+O5+T5)/3</f>
+        <f t="shared" si="0"/>
         <v>222</v>
       </c>
       <c r="D11" s="1">
-        <f>(K5+P5+U5)/3</f>
+        <f t="shared" si="0"/>
         <v>221.33333333333334</v>
       </c>
       <c r="G11" s="1">
-        <f>ROUND(A11,0)</f>
+        <f t="shared" ref="G11:J14" si="1">ROUND(A11,0)</f>
         <v>224</v>
       </c>
       <c r="H11" s="1">
-        <f>ROUND(B11,0)</f>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="I11" s="1">
-        <f>ROUND(C11,0)</f>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="J11" s="1">
-        <f>ROUND(D11,0)</f>
+        <f t="shared" si="1"/>
         <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f>(H6+M6+R6)/3</f>
+        <f t="shared" si="0"/>
         <v>225.66666666666666</v>
       </c>
       <c r="B12" s="1">
-        <f>(I6+N6+S6)/3</f>
+        <f t="shared" si="0"/>
         <v>222.33333333333334</v>
       </c>
       <c r="C12" s="1">
-        <f>(J6+O6+T6)/3</f>
+        <f t="shared" si="0"/>
         <v>217.66666666666666</v>
       </c>
       <c r="D12" s="1">
-        <f>(K6+P6+U6)/3</f>
+        <f t="shared" si="0"/>
         <v>221.66666666666666</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="1">
-        <f>ROUND(A12,0)</f>
+        <f t="shared" si="1"/>
         <v>226</v>
       </c>
       <c r="H12" s="1">
-        <f>ROUND(B12,0)</f>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="I12" s="1">
-        <f>ROUND(C12,0)</f>
+        <f t="shared" si="1"/>
         <v>218</v>
       </c>
       <c r="J12" s="1">
-        <f>ROUND(D12,0)</f>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f>(H7+M7+R7)/3</f>
+        <f t="shared" si="0"/>
         <v>225.66666666666666</v>
       </c>
       <c r="B13" s="1">
-        <f>(I7+N7+S7)/3</f>
+        <f t="shared" si="0"/>
         <v>221.66666666666666</v>
       </c>
       <c r="C13" s="1">
-        <f>(J7+O7+T7)/3</f>
+        <f t="shared" si="0"/>
         <v>217.66666666666666</v>
       </c>
       <c r="D13" s="1">
-        <f>(K7+P7+U7)/3</f>
+        <f t="shared" si="0"/>
         <v>222</v>
       </c>
       <c r="G13" s="1">
-        <f>ROUND(A13,0)</f>
+        <f t="shared" si="1"/>
         <v>226</v>
       </c>
       <c r="H13" s="1">
-        <f>ROUND(B13,0)</f>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="I13" s="1">
-        <f>ROUND(C13,0)</f>
+        <f t="shared" si="1"/>
         <v>218</v>
       </c>
       <c r="J13" s="1">
-        <f>ROUND(D13,0)</f>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f>(H8+M8+R8)/3</f>
+        <f t="shared" si="0"/>
         <v>224.33333333333334</v>
       </c>
       <c r="B14" s="1">
-        <f>(I8+N8+S8)/3</f>
+        <f t="shared" si="0"/>
         <v>222.33333333333334</v>
       </c>
       <c r="C14" s="1">
-        <f>(J8+O8+T8)/3</f>
+        <f t="shared" si="0"/>
         <v>218.66666666666666</v>
       </c>
       <c r="D14" s="1">
-        <f>(K8+P8+U8)/3</f>
+        <f t="shared" si="0"/>
         <v>222</v>
       </c>
       <c r="G14" s="1">
-        <f>ROUND(A14,0)</f>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="H14" s="1">
-        <f>ROUND(B14,0)</f>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="I14" s="1">
-        <f>ROUND(C14,0)</f>
+        <f t="shared" si="1"/>
         <v>219</v>
       </c>
       <c r="J14" s="1">
-        <f>ROUND(D14,0)</f>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>IF(G11&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <f>IF(H11&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
         <f>IF(I11&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <f>IF(J11&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1000,15 +1000,15 @@
       </c>
       <c r="B18" s="1">
         <f>IF(H12&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
         <f>IF(I12&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <f>IF(J12&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,33 +1018,33 @@
       </c>
       <c r="B19" s="1">
         <f>IF(H13&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <f>IF(I13&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <f>IF(J13&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>IF(G14&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <f>IF(H14&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
         <f>IF(I14&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <f>IF(J14&lt;B21,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1052,11 +1052,12 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>225</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H1:U1"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G10:J10"/>
@@ -1065,7 +1066,6 @@
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="H1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
